--- a/BDAVer0.8.xlsx
+++ b/BDAVer0.8.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdaproject\whitepaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334BF45-C16B-429A-ABF9-B42D65FD6880}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -330,9 +329,6 @@
     <t xml:space="preserve">Black Dia Coin 誕生 </t>
   </si>
   <si>
-    <t>　 Wavesトークンとして、</t>
-  </si>
-  <si>
     <t>　BLACK DIA COIN が誕生しました。 　</t>
   </si>
   <si>
@@ -611,20 +607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11月～</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　12月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取引所複数上場</t>
     <rPh sb="0" eb="2">
       <t>トリヒキ</t>
@@ -745,6 +727,24 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ジョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wavesトークンとして、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  11月～</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 12月</t>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -752,8 +752,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +829,21 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -861,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +928,18 @@
     <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -950,7 +977,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1046,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1107,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1157,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1207,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1271,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1321,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1371,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1421,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1556,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1575,7 @@
           <xdr:cNvPr id="9" name="角丸四角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1627,7 +1654,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1660,7 +1687,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1725,7 +1752,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1790,7 +1817,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1823,7 +1850,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1858,7 +1885,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1893,7 +1920,7 @@
           <xdr:cNvPr id="18" name="図 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1928,7 +1955,7 @@
           <xdr:cNvPr id="20" name="図 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1963,7 +1990,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2003,23 +2030,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>478156</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444539</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:rowOff>303959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490258</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>99172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,8 +2054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2640331" y="1262062"/>
-          <a:ext cx="45719" cy="16082963"/>
+          <a:off x="2685715" y="1245253"/>
+          <a:ext cx="45719" cy="13600860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2071,23 +2098,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>906036</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>13939</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,8 +2122,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="371940"/>
-          <a:ext cx="1385074" cy="4414"/>
+          <a:off x="537882" y="381000"/>
+          <a:ext cx="1703294" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2126,23 +2153,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>250353</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>184700</xdr:rowOff>
+      <xdr:rowOff>274347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,8 +2191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="628650"/>
-          <a:ext cx="908600" cy="908600"/>
+          <a:off x="2241176" y="627529"/>
+          <a:ext cx="906359" cy="901877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,23 +2210,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>250353</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>184700</xdr:rowOff>
+      <xdr:rowOff>274346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,8 +2248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="4171950"/>
-          <a:ext cx="908600" cy="908600"/>
+          <a:off x="2241176" y="1882588"/>
+          <a:ext cx="906359" cy="901877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2240,23 +2267,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>250353</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>184700</xdr:rowOff>
+      <xdr:rowOff>274346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,8 +2305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="5943600"/>
-          <a:ext cx="908600" cy="908600"/>
+          <a:off x="2241176" y="3137647"/>
+          <a:ext cx="906359" cy="901876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,23 +2324,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>250210</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222657</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>164010</xdr:rowOff>
+      <xdr:rowOff>276069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,8 +2362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="9448800"/>
-          <a:ext cx="908457" cy="906960"/>
+          <a:off x="2241176" y="5647765"/>
+          <a:ext cx="906216" cy="903598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2354,23 +2381,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248672</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>187632</xdr:rowOff>
+      <xdr:rowOff>299691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,8 +2419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="7715250"/>
-          <a:ext cx="934472" cy="930582"/>
+          <a:off x="2241176" y="4392706"/>
+          <a:ext cx="932231" cy="927220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2411,23 +2438,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>249454</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160860</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>221901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,8 +2476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="11182350"/>
-          <a:ext cx="907701" cy="903810"/>
+          <a:off x="2241176" y="6902824"/>
+          <a:ext cx="905460" cy="945272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,23 +2495,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3664</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248672</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>295017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,8 +2533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="13030200"/>
-          <a:ext cx="934472" cy="927589"/>
+          <a:off x="2241176" y="8157882"/>
+          <a:ext cx="932231" cy="922546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2525,23 +2552,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>906036</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>13939</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,8 +2576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="390525"/>
-          <a:ext cx="1380629" cy="4414"/>
+          <a:off x="537882" y="10611971"/>
+          <a:ext cx="1703294" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2580,23 +2607,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>245368</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>174627</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217815</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>264273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,8 +2645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="14878050"/>
-          <a:ext cx="903615" cy="898527"/>
+          <a:off x="2241176" y="10981765"/>
+          <a:ext cx="901374" cy="891801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,23 +2664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>245368</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>207939</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217815</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>280150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,8 +2702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189728" y="16821150"/>
-          <a:ext cx="903615" cy="893739"/>
+          <a:off x="2241176" y="13243602"/>
+          <a:ext cx="901374" cy="887016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2694,23 +2721,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>249454</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>221901</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>201202</xdr:rowOff>
+      <xdr:rowOff>271798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2759,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190288" y="9387168"/>
+          <a:off x="2241176" y="9412941"/>
           <a:ext cx="905460" cy="899328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2751,23 +2778,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27553</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>202267</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>215456</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248672</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>293336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,8 +2816,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190288" y="11777943"/>
-          <a:ext cx="932231" cy="920866"/>
+          <a:off x="2241176" y="12236824"/>
+          <a:ext cx="932231" cy="920864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,7 +3132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3509,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
@@ -3530,44 +3557,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="4.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="6.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="3" style="10" customWidth="1"/>
-    <col min="7" max="11" width="9" style="10"/>
-    <col min="12" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="7" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="6.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3" style="10" customWidth="1"/>
+    <col min="8" max="12" width="9" style="10"/>
+    <col min="13" max="16" width="9" style="9"/>
+    <col min="17" max="17" width="11.5" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="3:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="3" spans="2:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C3" s="14">
+      <c r="D1" s="13"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="14">
         <v>43230</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="F4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="11"/>
+    <row r="4" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -3575,12 +3614,16 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="F5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -3588,21 +3631,31 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-    </row>
-    <row r="7" spans="2:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C7" s="14">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="14">
         <v>43252</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+    <row r="8" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3610,13 +3663,17 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -3624,20 +3681,31 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-    </row>
-    <row r="11" spans="2:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C11" s="14">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="14">
         <v>43306</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="G12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -3645,12 +3713,18 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="2:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="G13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -3658,47 +3732,71 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-    </row>
-    <row r="15" spans="2:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C15" s="14" t="s">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-    </row>
-    <row r="19" spans="3:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C19" s="14" t="s">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="3:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -3706,58 +3804,82 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-    </row>
-    <row r="23" spans="3:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C23" s="14" t="s">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="3:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-    </row>
-    <row r="27" spans="3:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="14" t="s">
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="12" t="s">
+    </row>
+    <row r="28" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -3765,71 +3887,167 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-    </row>
-    <row r="31" spans="3:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="C31" s="16" t="s">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G33" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="33" x14ac:dyDescent="0.4">
-      <c r="D35" s="13"/>
-      <c r="F35" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="38" spans="2:14" ht="33" x14ac:dyDescent="0.4">
-      <c r="F38" s="12" t="s">
+    <row r="45" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G39" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="33" x14ac:dyDescent="0.4">
-      <c r="F43" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G44" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
